--- a/asset/林芝市测试数据.xlsx
+++ b/asset/林芝市测试数据.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asprinchang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asprinchang/CodeWorkSpace/PythonProject/MapDemo_python/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD07CD-F44C-5D44-B58C-5165908DC86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6D59C-BA7D-1F41-AC30-DFFD37531D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{4D982B8C-C9AC-2143-8229-F164494E1F3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="red" sheetId="1" r:id="rId1"/>
+    <sheet name="yellow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>巴宜区平安路财政宾馆整栋楼(含商品房)</t>
   </si>
@@ -193,6 +193,31 @@
   </si>
   <si>
     <t>林芝市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-8-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +246,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,11 +278,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,446 +608,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6EBC30-14D2-4F46-9908-4C1689F1BF8F}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" ht="18">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:3" ht="18">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:3" ht="18">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA41301-4616-1C4D-8B6E-FFE808686F1C}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" ht="18">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:3" ht="18">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:3" ht="18">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:3" ht="18">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18">
-      <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:3" ht="18">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:3" ht="18">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:3" ht="18">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:3" ht="18">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:3" ht="18">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18">
-      <c r="A30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18">
-      <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:3" ht="18">
+      <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:3" ht="18">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:3" ht="18">
+      <c r="A34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18">
-      <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:3" ht="18">
+      <c r="A35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>